--- a/AAII_Financials/Yearly/DIS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DIS_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/DIS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DIS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,170 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43372</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42280</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41909</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41545</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41181</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40817</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>69570000</v>
+        <v>65388000</v>
       </c>
       <c r="E8" s="3">
+        <v>69607000</v>
+      </c>
+      <c r="F8" s="3">
         <v>59434000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55137000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>55632000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52465000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48813000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45041000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42278000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40893000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>42018000</v>
+        <v>43880000</v>
       </c>
       <c r="E9" s="3">
+        <v>42061000</v>
+      </c>
+      <c r="F9" s="3">
         <v>32726000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30306000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>29993000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28364000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26420000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>60625000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>56883000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33112000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27552000</v>
+        <v>21508000</v>
       </c>
       <c r="E10" s="3">
+        <v>27546000</v>
+      </c>
+      <c r="F10" s="3">
         <v>26708000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24831000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25639000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24101000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22393000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-15584000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-14605000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7781000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,8 +842,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,9 +875,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -895,75 +911,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5735000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2608000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>156000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>53000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>140000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>535000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4160000</v>
+        <v>5345000</v>
       </c>
       <c r="E15" s="3">
+        <v>4167000</v>
+      </c>
+      <c r="F15" s="3">
         <v>3011000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2782000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2527000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2354000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2288000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2192000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1987000</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -974,74 +999,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>55111000</v>
+        <v>67329000</v>
       </c>
       <c r="E17" s="3">
+        <v>55169000</v>
+      </c>
+      <c r="F17" s="3">
         <v>44589000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41284000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41430000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39294000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37378000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36093000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33276000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33064000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14459000</v>
+        <v>-1941000</v>
       </c>
       <c r="E18" s="3">
+        <v>14438000</v>
+      </c>
+      <c r="F18" s="3">
         <v>14845000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13853000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14202000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13171000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11435000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8948000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9002000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7829000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1055,173 +1087,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>673000</v>
+        <v>1845000</v>
       </c>
       <c r="E20" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="F20" s="3">
         <v>566000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>442000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1020000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>962000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1105000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1021000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>730000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>649000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19292000</v>
+        <v>5249000</v>
       </c>
       <c r="E21" s="3">
+        <v>20517000</v>
+      </c>
+      <c r="F21" s="3">
         <v>18422000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17077000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17749000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16487000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14828000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12161000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11719000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10319000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1188000</v>
+        <v>1647000</v>
       </c>
       <c r="E22" s="3">
+        <v>2434000</v>
+      </c>
+      <c r="F22" s="3">
         <v>682000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>507000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>354000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>265000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>294000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>349000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>472000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>435000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13944000</v>
+        <v>-1743000</v>
       </c>
       <c r="E23" s="3">
+        <v>13923000</v>
+      </c>
+      <c r="F23" s="3">
         <v>14729000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13788000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14868000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13868000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12246000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9620000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9260000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8043000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3065000</v>
+        <v>699000</v>
       </c>
       <c r="E24" s="3">
+        <v>3060000</v>
+      </c>
+      <c r="F24" s="3">
         <v>3363000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4422000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5078000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5016000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4242000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2984000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3087000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2785000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1252,75 +1300,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10879000</v>
+        <v>-2442000</v>
       </c>
       <c r="E26" s="3">
+        <v>10863000</v>
+      </c>
+      <c r="F26" s="3">
         <v>11366000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9366000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9790000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8852000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8004000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6636000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6173000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5258000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10407000</v>
+        <v>-2832000</v>
       </c>
       <c r="E27" s="3">
+        <v>10391000</v>
+      </c>
+      <c r="F27" s="3">
         <v>10898000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8980000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9391000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8382000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7501000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6136000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5682000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4807000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1351,20 +1408,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>647000</v>
+        <v>-32000</v>
       </c>
       <c r="E29" s="3">
+        <v>663000</v>
+      </c>
+      <c r="F29" s="3">
         <v>1700000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1381,12 +1441,15 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1417,9 +1480,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1450,75 +1516,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-673000</v>
+        <v>-1845000</v>
       </c>
       <c r="E32" s="3">
+        <v>-1919000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-566000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-442000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1020000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-962000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1105000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1021000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-730000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-649000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2864000</v>
+      </c>
+      <c r="E33" s="3">
         <v>11054000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12598000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8980000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9391000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8382000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7501000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6136000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5682000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4807000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1549,80 +1624,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2864000</v>
+      </c>
+      <c r="E35" s="3">
         <v>11054000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12598000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8980000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9391000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8382000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7501000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6136000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5682000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4807000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43372</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42280</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41909</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41545</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41181</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40817</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1636,8 +1720,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1651,41 +1736,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17914000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5418000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4150000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4017000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4610000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4269000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3421000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3931000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3387000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3185000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1716,240 +1805,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12708000</v>
+      </c>
+      <c r="E43" s="3">
         <v>15481000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9334000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8633000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9065000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8019000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7822000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6967000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6540000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6182000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1583000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1649000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1392000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1373000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1390000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1571000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1574000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1487000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1537000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1595000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3046000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5576000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1949000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1866000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1901000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2899000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2359000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1724000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2245000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2795000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35251000</v>
+      </c>
+      <c r="E46" s="3">
         <v>28124000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16825000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15889000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16966000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16758000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15176000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14109000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13709000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13757000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3903000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3224000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4827000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4890000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5931000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4319000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4220000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4396000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4368000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4118000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36126000</v>
+      </c>
+      <c r="E48" s="3">
         <v>31603000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29540000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28406000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27349000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25179000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23332000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22380000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21512000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19695000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>121884000</v>
+      </c>
+      <c r="E49" s="3">
         <v>126318000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45969000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45902000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>41098000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>41181000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>40640000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>39477000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34666000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33623000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1980,9 +2093,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2013,42 +2129,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4385000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4715000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1437000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>702000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>689000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>745000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>818000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>879000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>643000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>931000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2079,42 +2201,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>201549000</v>
+      </c>
+      <c r="E54" s="3">
         <v>193984000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98598000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95789000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92033000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>88182000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>84186000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>81241000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>74898000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72124000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2128,8 +2256,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2143,206 +2272,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12663000</v>
+      </c>
+      <c r="E57" s="3">
         <v>13778000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6503000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6490000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6860000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5504000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5371000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4899000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4619000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4546000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5748000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8857000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3790000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6172000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3687000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4563000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2164000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1512000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3614000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3055000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8217000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8706000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7567000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6933000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6295000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6267000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5757000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5293000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4580000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4487000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26628000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31341000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17860000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19595000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16842000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16334000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13292000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11704000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12813000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12088000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>53188000</v>
+      </c>
+      <c r="E61" s="3">
         <v>38129000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17084000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19119000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16483000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12773000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12676000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13050000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10981000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11210000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24221000</v>
+      </c>
+      <c r="E62" s="3">
         <v>21662000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9699000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10923000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11385000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10420000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10040000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8337000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9146000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9373000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2373,9 +2521,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2406,9 +2557,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2439,42 +2593,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117966000</v>
+      </c>
+      <c r="E66" s="3">
         <v>105107000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>49825000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54474000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>48768000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43657000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39228000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>35812000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35139000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34739000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2488,8 +2648,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2520,9 +2681,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2553,9 +2717,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2586,9 +2753,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2619,42 +2789,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38315000</v>
+      </c>
+      <c r="E72" s="3">
         <v>42494000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>82679000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>72606000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>66088000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>59028000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53734000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47758000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42965000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38375000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2685,9 +2861,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2718,9 +2897,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2751,42 +2933,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83583000</v>
+      </c>
+      <c r="E76" s="3">
         <v>88877000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48773000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41315000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43265000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>44525000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>44958000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>45429000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39759000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37385000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2817,80 +3005,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43372</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42280</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41909</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41545</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41181</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40817</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2864000</v>
+      </c>
+      <c r="E81" s="3">
         <v>11054000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12598000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8980000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9391000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8382000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7501000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6136000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5682000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4807000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2904,41 +3101,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5345000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4160000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3011000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2782000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2527000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2354000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2288000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2192000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1987000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1841000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2969,9 +3170,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3002,9 +3206,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3035,9 +3242,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3068,9 +3278,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3101,42 +3314,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7618000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6606000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14295000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12343000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13136000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11385000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9780000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9452000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7966000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6994000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3150,41 +3369,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4022000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4876000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4465000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3623000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4773000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4265000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3311000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2796000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3784000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3559000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3215,9 +3438,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3248,42 +3474,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3637000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4118000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5336000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4111000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5758000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4245000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3345000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4676000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4759000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3286000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3297,41 +3529,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1587000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2895000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2515000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2445000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2313000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3063000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1508000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1324000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1076000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-756000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3362,9 +3598,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3395,9 +3634,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3428,106 +3670,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8480000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8843000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8959000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7220000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5801000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6710000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4214000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2985000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3233000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-98000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>31000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-123000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-302000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-235000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-18000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12499000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>91000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-696000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>35000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1037000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-510000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>544000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>202000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>463000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DIS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DIS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,182 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43372</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42280</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41909</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41545</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41181</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40817</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>67418000</v>
+      </c>
+      <c r="E8" s="3">
         <v>65388000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>69607000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>59434000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>55137000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55632000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>52465000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>48813000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45041000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42278000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40893000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45131000</v>
+      </c>
+      <c r="E9" s="3">
         <v>43880000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>42061000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32726000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30306000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29993000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>28364000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26420000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>60625000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>56883000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33112000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22287000</v>
+      </c>
+      <c r="E10" s="3">
         <v>21508000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27546000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26708000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24831000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25639000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24101000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22393000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-15584000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-14605000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7781000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,8 +855,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,9 +891,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,81 +930,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5735000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2608000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>156000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>53000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>140000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>535000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>55000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5345000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4167000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3011000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2782000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2527000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2354000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2288000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2192000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1987000</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,80 +1025,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>64287000</v>
+      </c>
+      <c r="E17" s="3">
         <v>67329000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55169000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44589000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41284000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41430000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39294000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37378000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36093000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33276000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33064000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3131000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1941000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14438000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14845000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13853000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14202000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13171000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11435000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8948000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9002000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7829000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1088,188 +1120,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>976000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1845000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1919000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>566000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>442000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1020000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>962000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1105000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1021000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>730000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>649000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9218000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5249000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20517000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18422000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17077000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17749000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16487000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14828000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12161000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11719000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10319000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1647000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2434000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>682000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>507000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>354000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>265000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>294000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>349000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>472000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>435000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2561000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1743000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13923000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14729000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13788000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14868000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13868000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12246000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9620000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9260000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8043000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E24" s="3">
         <v>699000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3060000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3363000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4422000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5078000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5016000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4242000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2984000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3087000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2785000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1303,81 +1351,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2536000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2442000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10863000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11366000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9366000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9790000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8852000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8004000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6636000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6173000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5258000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2024000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2832000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10391000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10898000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8980000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9391000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8382000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7501000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6136000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5682000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4807000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1411,23 +1468,26 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-32000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>663000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1700000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1444,12 +1504,15 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,9 +1546,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1519,81 +1585,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-976000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1845000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1919000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-566000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-442000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1020000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-962000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1105000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1021000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-730000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-649000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1995000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2864000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11054000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12598000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8980000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9391000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8382000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7501000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6136000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5682000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4807000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1627,86 +1702,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1995000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2864000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11054000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12598000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8980000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9391000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8382000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7501000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6136000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5682000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4807000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43372</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42280</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41909</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41545</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41181</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40817</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1721,8 +1805,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1737,44 +1822,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15959000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17914000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5418000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4150000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4017000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4610000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4269000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3421000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3931000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3387000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3185000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1808,261 +1897,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13367000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12708000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15481000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9334000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8633000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9065000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8019000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7822000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6967000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6540000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6182000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1583000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1649000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1392000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1373000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1390000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1571000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1574000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1487000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1537000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1595000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3046000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5576000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1949000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1866000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1901000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2899000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2359000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1724000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2245000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2795000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33657000</v>
+      </c>
+      <c r="E46" s="3">
         <v>35251000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28124000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16825000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15889000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16966000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16758000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15176000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14109000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13709000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13757000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3935000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3903000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3224000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4827000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4890000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5931000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4319000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4220000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4396000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4368000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4118000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36855000</v>
+      </c>
+      <c r="E48" s="3">
         <v>36126000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31603000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29540000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28406000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27349000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25179000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23332000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22380000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21512000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19695000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>124735000</v>
+      </c>
+      <c r="E49" s="3">
         <v>121884000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>126318000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45969000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45902000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>41098000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>41181000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>40640000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39477000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34666000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33623000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2096,9 +2209,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2132,45 +2248,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4427000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4385000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4715000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1437000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>702000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>689000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>745000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>818000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>879000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>643000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>931000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2204,45 +2326,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203609000</v>
+      </c>
+      <c r="E54" s="3">
         <v>201549000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>193984000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98598000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95789000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92033000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>88182000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>84186000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>81241000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74898000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72124000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2257,8 +2385,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2273,224 +2402,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16357000</v>
+      </c>
+      <c r="E57" s="3">
         <v>12663000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13778000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6503000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6490000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6860000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5504000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5371000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4899000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4619000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4546000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5907000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5748000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8857000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3790000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6172000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3687000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4563000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2164000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1512000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3614000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3055000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8813000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8217000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8706000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7567000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6933000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6295000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6267000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5757000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5293000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4580000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4487000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31077000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26628000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31341000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17860000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19595000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16842000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16334000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13292000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11704000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12813000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12088000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48786000</v>
+      </c>
+      <c r="E61" s="3">
         <v>53188000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38129000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17084000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19119000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16483000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12773000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12676000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13050000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10981000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11210000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21522000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24221000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21662000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9699000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10923000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11385000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10420000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10040000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8337000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9146000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9373000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2524,9 +2672,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2560,9 +2711,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2596,45 +2750,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>115056000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117966000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>105107000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>49825000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54474000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>48768000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43657000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39228000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35812000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35139000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34739000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2649,8 +2809,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2684,9 +2845,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2720,9 +2884,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2756,9 +2923,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2792,45 +2962,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40429000</v>
+      </c>
+      <c r="E72" s="3">
         <v>38315000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>42494000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>82679000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>72606000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>66088000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>59028000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53734000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47758000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42965000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38375000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2864,9 +3040,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2900,9 +3079,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2936,45 +3118,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88553000</v>
+      </c>
+      <c r="E76" s="3">
         <v>83583000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>88877000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48773000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41315000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43265000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>44525000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>44958000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45429000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39759000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37385000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3008,86 +3196,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43372</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42280</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41909</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41545</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41181</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40817</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1995000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2864000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11054000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12598000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8980000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9391000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8382000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7501000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6136000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5682000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4807000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3102,44 +3299,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5345000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4160000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3011000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2782000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2527000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2354000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2288000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2192000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1987000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1841000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3173,9 +3374,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3209,9 +3413,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3245,9 +3452,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3281,9 +3491,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3317,45 +3530,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5567000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7618000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6606000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14295000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12343000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13136000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11385000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9780000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9452000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7966000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6994000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3370,44 +3589,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3578000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4022000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4876000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4465000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3623000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4773000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4265000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3311000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2796000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3784000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3559000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3441,9 +3664,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3477,45 +3703,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3163000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3637000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4118000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5336000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4111000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5758000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4245000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3345000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4676000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4759000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3286000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3530,44 +3762,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1587000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2895000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2515000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2445000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2313000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3063000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1508000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1324000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1076000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-756000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3601,9 +3837,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3637,9 +3876,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3673,115 +3915,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4385000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8480000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8843000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8959000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7220000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5801000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6710000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4214000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2985000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3233000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E101" s="3">
         <v>38000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-98000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-25000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>31000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-123000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-302000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-235000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-20000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1951000</v>
+      </c>
+      <c r="E102" s="3">
         <v>12499000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>91000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-696000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>35000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1037000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-510000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>544000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>202000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>463000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DIS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DIS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -1166,25 +1166,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9218000</v>
+        <v>9452000</v>
       </c>
       <c r="E21" s="3">
-        <v>5249000</v>
+        <v>4064000</v>
       </c>
       <c r="F21" s="3">
-        <v>20517000</v>
+        <v>19368000</v>
       </c>
       <c r="G21" s="3">
-        <v>18422000</v>
+        <v>18193000</v>
       </c>
       <c r="H21" s="3">
-        <v>17077000</v>
+        <v>16822000</v>
       </c>
       <c r="I21" s="3">
-        <v>17749000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>16487000</v>
+        <v>17576000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>14828000</v>
@@ -3306,25 +3306,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5111000</v>
+        <v>5345000</v>
       </c>
       <c r="E83" s="3">
-        <v>5345000</v>
+        <v>4160000</v>
       </c>
       <c r="F83" s="3">
-        <v>4160000</v>
+        <v>3011000</v>
       </c>
       <c r="G83" s="3">
-        <v>3011000</v>
+        <v>2782000</v>
       </c>
       <c r="H83" s="3">
-        <v>2782000</v>
+        <v>2527000</v>
       </c>
       <c r="I83" s="3">
-        <v>2527000</v>
-      </c>
-      <c r="J83" s="3">
         <v>2354000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>2288000</v>
@@ -3540,25 +3540,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5567000</v>
+        <v>7618000</v>
       </c>
       <c r="E89" s="3">
-        <v>7618000</v>
+        <v>6606000</v>
       </c>
       <c r="F89" s="3">
-        <v>6606000</v>
+        <v>14295000</v>
       </c>
       <c r="G89" s="3">
-        <v>14295000</v>
+        <v>12343000</v>
       </c>
       <c r="H89" s="3">
-        <v>12343000</v>
+        <v>13136000</v>
       </c>
       <c r="I89" s="3">
-        <v>13136000</v>
+        <v>11385000</v>
       </c>
       <c r="J89" s="3">
-        <v>11385000</v>
+        <v>9780000</v>
       </c>
       <c r="K89" s="3">
         <v>9780000</v>
@@ -3596,25 +3596,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3578000</v>
+        <v>-4022000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4022000</v>
+        <v>-4876000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4876000</v>
+        <v>-4465000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4465000</v>
+        <v>-3623000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3623000</v>
+        <v>-4773000</v>
       </c>
       <c r="I91" s="3">
-        <v>-4773000</v>
+        <v>-4265000</v>
       </c>
       <c r="J91" s="3">
-        <v>-4265000</v>
+        <v>-3311000</v>
       </c>
       <c r="K91" s="3">
         <v>-3311000</v>
@@ -3713,25 +3713,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3163000</v>
+        <v>-3637000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3637000</v>
+        <v>-4118000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4118000</v>
+        <v>-5336000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5336000</v>
+        <v>-4111000</v>
       </c>
       <c r="H94" s="3">
-        <v>-4111000</v>
+        <v>-5758000</v>
       </c>
       <c r="I94" s="3">
-        <v>-5758000</v>
-      </c>
-      <c r="J94" s="3">
         <v>-4245000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-3345000</v>
@@ -3769,25 +3769,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1587000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1587000</v>
+        <v>-2895000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2895000</v>
+        <v>-2515000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2515000</v>
+        <v>-2445000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2445000</v>
+        <v>-2313000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2313000</v>
+        <v>-3063000</v>
       </c>
       <c r="J96" s="3">
-        <v>-3063000</v>
+        <v>-1508000</v>
       </c>
       <c r="K96" s="3">
         <v>-1508000</v>
@@ -3925,25 +3925,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4385000</v>
+        <v>8480000</v>
       </c>
       <c r="E100" s="3">
-        <v>8480000</v>
+        <v>-1090000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1090000</v>
+        <v>-8843000</v>
       </c>
       <c r="G100" s="3">
-        <v>-8843000</v>
+        <v>-8959000</v>
       </c>
       <c r="H100" s="3">
-        <v>-8959000</v>
+        <v>-7220000</v>
       </c>
       <c r="I100" s="3">
-        <v>-7220000</v>
-      </c>
-      <c r="J100" s="3">
         <v>-5801000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-6710000</v>
@@ -3964,25 +3964,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="E101" s="3">
-        <v>38000</v>
+        <v>-98000</v>
       </c>
       <c r="F101" s="3">
-        <v>-98000</v>
+        <v>-25000</v>
       </c>
       <c r="G101" s="3">
-        <v>-25000</v>
+        <v>31000</v>
       </c>
       <c r="H101" s="3">
-        <v>31000</v>
+        <v>-123000</v>
       </c>
       <c r="I101" s="3">
-        <v>-123000</v>
-      </c>
-      <c r="J101" s="3">
         <v>-302000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-235000</v>
@@ -4003,25 +4003,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1951000</v>
+        <v>12499000</v>
       </c>
       <c r="E102" s="3">
-        <v>12499000</v>
+        <v>1300000</v>
       </c>
       <c r="F102" s="3">
-        <v>1300000</v>
+        <v>91000</v>
       </c>
       <c r="G102" s="3">
-        <v>91000</v>
+        <v>-696000</v>
       </c>
       <c r="H102" s="3">
-        <v>-696000</v>
+        <v>35000</v>
       </c>
       <c r="I102" s="3">
-        <v>35000</v>
+        <v>1037000</v>
       </c>
       <c r="J102" s="3">
-        <v>1037000</v>
+        <v>-510000</v>
       </c>
       <c r="K102" s="3">
         <v>-510000</v>

--- a/AAII_Financials/Yearly/DIS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DIS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,194 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43372</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42280</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41909</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41545</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41181</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40817</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>82722000</v>
+      </c>
+      <c r="E8" s="3">
         <v>67418000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>65388000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>69607000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>59434000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55137000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55632000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>52465000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48813000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45041000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42278000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40893000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>54401000</v>
+      </c>
+      <c r="E9" s="3">
         <v>45131000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43880000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42061000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32726000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30306000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>29993000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28364000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26420000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>60625000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>56883000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>33112000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28321000</v>
+      </c>
+      <c r="E10" s="3">
         <v>22287000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21508000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27546000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26708000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24831000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25639000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24101000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22393000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-15584000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-14605000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7781000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +868,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,9 +907,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -933,87 +949,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E14" s="3">
         <v>528000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5735000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2608000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>156000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>53000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>140000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>535000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>55000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5163000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5111000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5345000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4167000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3011000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2782000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2527000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2354000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2288000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2192000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1987000</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1026,86 +1051,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>76193000</v>
+      </c>
+      <c r="E17" s="3">
         <v>64287000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>67329000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55169000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44589000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41284000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41430000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39294000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37378000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36093000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33276000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33064000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6529000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3131000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1941000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14438000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14845000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13853000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14202000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13171000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11435000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8948000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9002000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7829000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1121,203 +1153,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E20" s="3">
         <v>976000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1845000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1919000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>566000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>442000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1020000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>962000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1105000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1021000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>730000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>649000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9452000</v>
+        <v>11997000</v>
       </c>
       <c r="E21" s="3">
-        <v>4064000</v>
+        <v>9218000</v>
       </c>
       <c r="F21" s="3">
-        <v>19368000</v>
+        <v>5249000</v>
       </c>
       <c r="G21" s="3">
-        <v>18193000</v>
+        <v>20517000</v>
       </c>
       <c r="H21" s="3">
-        <v>16822000</v>
+        <v>18422000</v>
       </c>
       <c r="I21" s="3">
-        <v>17576000</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>17077000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>17749000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14828000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12161000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11719000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10319000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1549000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1546000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1647000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2434000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>682000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>507000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>354000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>265000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>294000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>349000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>472000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>435000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5285000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2561000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1743000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13923000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14729000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13788000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14868000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13868000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12246000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9620000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9260000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8043000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1732000</v>
+      </c>
+      <c r="E24" s="3">
         <v>25000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>699000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3060000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3363000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4422000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5078000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5016000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4242000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2984000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3087000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2785000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1354,87 +1402,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3553000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2536000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2442000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10863000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11366000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9366000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9790000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8852000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8004000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6636000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6173000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5258000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3193000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2024000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2832000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10391000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10898000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8980000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9391000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8382000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7501000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6136000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5682000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4807000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1471,26 +1528,29 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-29000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-32000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>663000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1700000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1507,12 +1567,15 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1549,9 +1612,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1588,87 +1654,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-305000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-976000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1845000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1919000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-566000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-442000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1020000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-962000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1105000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1021000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-730000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-649000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3145000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1995000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2864000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11054000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12598000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8980000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9391000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8382000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7501000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6136000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5682000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4807000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1705,92 +1780,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3145000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1995000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2864000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11054000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12598000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8980000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9391000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8382000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7501000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6136000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5682000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4807000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43372</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42280</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41909</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41545</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41181</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40817</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1806,8 +1890,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1823,47 +1908,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11615000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15959000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17914000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5418000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4150000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4017000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4610000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4269000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3421000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3931000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3387000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3185000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1900,282 +1989,306 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12652000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13367000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12708000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15481000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9334000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8633000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9065000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8019000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7822000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6967000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6540000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6182000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1331000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1583000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1649000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1392000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1373000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1390000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1571000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1574000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1487000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1537000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1595000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3089000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3046000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5576000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1949000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1866000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1901000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2899000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2359000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1724000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2245000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2795000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29098000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33657000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35251000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28124000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16825000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15889000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16966000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16758000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15176000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14109000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13709000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13757000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3218000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3935000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3903000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3224000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4827000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4890000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5931000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4319000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4220000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4396000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4368000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4118000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37865000</v>
+      </c>
+      <c r="E48" s="3">
         <v>36855000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36126000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31603000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29540000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28406000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27349000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25179000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23332000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22380000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21512000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19695000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>128511000</v>
+      </c>
+      <c r="E49" s="3">
         <v>124735000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>121884000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>126318000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45969000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45902000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>41098000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>41181000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40640000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39477000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34666000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33623000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2212,9 +2325,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2251,48 +2367,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4939000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4427000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4385000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4715000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1437000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>702000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>689000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>745000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>818000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>879000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>643000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>931000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2329,48 +2451,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203631000</v>
+      </c>
+      <c r="E54" s="3">
         <v>203609000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>201549000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>193984000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>98598000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95789000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92033000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>88182000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84186000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>81241000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74898000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>72124000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2386,8 +2514,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2403,242 +2532,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15554000</v>
+      </c>
+      <c r="E57" s="3">
         <v>16357000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12663000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13778000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6503000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6490000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6860000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5504000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5371000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4899000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4619000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4546000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3107000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5907000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5748000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8857000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3790000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6172000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3687000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4563000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2164000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1512000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3614000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3055000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10412000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8813000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8217000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8706000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7567000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6933000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6295000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6267000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5757000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5293000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4580000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4487000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29073000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31077000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26628000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31341000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17860000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19595000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16842000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16334000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13292000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11704000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12813000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12088000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45518000</v>
+      </c>
+      <c r="E61" s="3">
         <v>48786000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>53188000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38129000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17084000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19119000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16483000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12773000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12676000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13050000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10981000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11210000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20662000</v>
+      </c>
+      <c r="E62" s="3">
         <v>21522000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24221000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21662000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9699000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10923000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11385000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10420000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10040000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8337000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9146000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9373000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2675,9 +2823,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2714,9 +2865,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2753,48 +2907,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>108623000</v>
+      </c>
+      <c r="E66" s="3">
         <v>115056000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117966000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>105107000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49825000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54474000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>48768000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43657000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39228000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35812000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35139000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34739000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2810,8 +2970,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2848,9 +3009,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2887,9 +3051,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2926,9 +3093,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2965,48 +3135,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>43636000</v>
+      </c>
+      <c r="E72" s="3">
         <v>40429000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38315000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>42494000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>82679000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>72606000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>66088000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>59028000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53734000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47758000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42965000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38375000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3043,9 +3219,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3082,9 +3261,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3121,48 +3303,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>95008000</v>
+      </c>
+      <c r="E76" s="3">
         <v>88553000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>83583000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>88877000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48773000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41315000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>43265000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>44525000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44958000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>45429000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39759000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37385000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3199,92 +3387,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43372</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42280</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41909</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41545</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41181</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40817</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3145000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1995000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2864000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11054000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12598000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8980000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9391000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8382000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7501000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6136000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5682000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4807000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3300,47 +3497,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5163000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="F83" s="3">
         <v>5345000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4160000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3011000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2782000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2527000</v>
       </c>
-      <c r="I83" s="3">
-        <v>2354000</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2288000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2192000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1987000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1841000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3377,9 +3578,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3416,9 +3620,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3455,9 +3662,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3494,9 +3704,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3533,48 +3746,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6010000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5567000</v>
+      </c>
+      <c r="F89" s="3">
         <v>7618000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>6606000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>14295000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>12343000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>13136000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>11385000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>9780000</v>
       </c>
       <c r="K89" s="3">
         <v>9780000</v>
       </c>
       <c r="L89" s="3">
+        <v>9780000</v>
+      </c>
+      <c r="M89" s="3">
         <v>9452000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7966000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6994000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3590,47 +3809,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4943000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3578000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4022000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4876000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4465000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3623000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4773000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4265000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3311000</v>
       </c>
       <c r="K91" s="3">
         <v>-3311000</v>
       </c>
       <c r="L91" s="3">
+        <v>-3311000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2796000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3784000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3559000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3667,9 +3890,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3706,48 +3932,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5008000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3163000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3637000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4118000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5336000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4111000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5758000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-4245000</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3345000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4676000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4759000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3286000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3763,47 +3995,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1587000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-2895000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-2515000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-2445000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-2313000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-3063000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1508000</v>
       </c>
       <c r="K96" s="3">
         <v>-1508000</v>
       </c>
       <c r="L96" s="3">
+        <v>-1508000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1324000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1076000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-756000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3840,9 +4076,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3879,9 +4118,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3918,124 +4160,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4741000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4385000</v>
+      </c>
+      <c r="F100" s="3">
         <v>8480000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-8843000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8959000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-7220000</v>
       </c>
-      <c r="I100" s="3">
-        <v>-5801000</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6710000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4214000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2985000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3233000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-603000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F101" s="3">
         <v>38000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-98000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-25000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>31000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-123000</v>
       </c>
-      <c r="I101" s="3">
-        <v>-302000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-235000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-20000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4342000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1951000</v>
+      </c>
+      <c r="F102" s="3">
         <v>12499000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1300000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>91000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-696000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>35000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1037000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-510000</v>
       </c>
       <c r="K102" s="3">
         <v>-510000</v>
       </c>
       <c r="L102" s="3">
+        <v>-510000</v>
+      </c>
+      <c r="M102" s="3">
         <v>544000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>202000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>463000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
